--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H2">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I2">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J2">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.07184333333333333</v>
+        <v>0.1591613333333333</v>
       </c>
       <c r="N2">
-        <v>0.21553</v>
+        <v>0.477484</v>
       </c>
       <c r="O2">
-        <v>0.04065095086408497</v>
+        <v>0.08581789712686431</v>
       </c>
       <c r="P2">
-        <v>0.04065095086408497</v>
+        <v>0.08581789712686431</v>
       </c>
       <c r="Q2">
-        <v>0.5939716073977778</v>
+        <v>0.5965943998435554</v>
       </c>
       <c r="R2">
-        <v>5.34574446658</v>
+        <v>5.369349598591999</v>
       </c>
       <c r="S2">
-        <v>0.01486468890334966</v>
+        <v>0.01778158893225789</v>
       </c>
       <c r="T2">
-        <v>0.01486468890334965</v>
+        <v>0.0177815889322579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H3">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I3">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J3">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.945602</v>
       </c>
       <c r="O3">
-        <v>0.7441770195853729</v>
+        <v>0.7091405503421059</v>
       </c>
       <c r="P3">
-        <v>0.7441770195853727</v>
+        <v>0.7091405503421059</v>
       </c>
       <c r="Q3">
-        <v>10.87354689413022</v>
+        <v>4.929849078108444</v>
       </c>
       <c r="R3">
-        <v>97.861922047172</v>
+        <v>44.368641702976</v>
       </c>
       <c r="S3">
-        <v>0.2721205691385618</v>
+        <v>0.1469349189801011</v>
       </c>
       <c r="T3">
-        <v>0.2721205691385618</v>
+        <v>0.1469349189801011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H4">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I4">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J4">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.140835</v>
       </c>
       <c r="O4">
-        <v>0.2151720295505423</v>
+        <v>0.2050415525310298</v>
       </c>
       <c r="P4">
-        <v>0.2151720295505423</v>
+        <v>0.2050415525310298</v>
       </c>
       <c r="Q4">
-        <v>3.143987374034445</v>
+        <v>1.425421107608889</v>
       </c>
       <c r="R4">
-        <v>28.29588636631</v>
+        <v>12.82878996848</v>
       </c>
       <c r="S4">
-        <v>0.07868119224726446</v>
+        <v>0.04248489794324508</v>
       </c>
       <c r="T4">
-        <v>0.07868119224726444</v>
+        <v>0.04248489794324509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.324913</v>
       </c>
       <c r="I5">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J5">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07184333333333333</v>
+        <v>0.1591613333333333</v>
       </c>
       <c r="N5">
-        <v>0.21553</v>
+        <v>0.477484</v>
       </c>
       <c r="O5">
-        <v>0.04065095086408497</v>
+        <v>0.08581789712686431</v>
       </c>
       <c r="P5">
-        <v>0.04065095086408497</v>
+        <v>0.08581789712686431</v>
       </c>
       <c r="Q5">
-        <v>0.7980576109877776</v>
+        <v>1.768012528765777</v>
       </c>
       <c r="R5">
-        <v>7.182518498889999</v>
+        <v>15.912112758892</v>
       </c>
       <c r="S5">
-        <v>0.01997212992428321</v>
+        <v>0.05269588856656855</v>
       </c>
       <c r="T5">
-        <v>0.01997212992428321</v>
+        <v>0.05269588856656855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.324913</v>
       </c>
       <c r="I6">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J6">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.945602</v>
       </c>
       <c r="O6">
-        <v>0.7441770195853729</v>
+        <v>0.7091405503421059</v>
       </c>
       <c r="P6">
-        <v>0.7441770195853727</v>
+        <v>0.7091405503421059</v>
       </c>
       <c r="Q6">
         <v>14.60964926473622</v>
@@ -818,10 +818,10 @@
         <v>131.486843382626</v>
       </c>
       <c r="S6">
-        <v>0.3656199868858706</v>
+        <v>0.4354428699601033</v>
       </c>
       <c r="T6">
-        <v>0.3656199868858705</v>
+        <v>0.4354428699601034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.324913</v>
       </c>
       <c r="I7">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J7">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.140835</v>
       </c>
       <c r="O7">
-        <v>0.2151720295505423</v>
+        <v>0.2050415525310298</v>
       </c>
       <c r="P7">
-        <v>0.2151720295505423</v>
+        <v>0.2050415525310298</v>
       </c>
       <c r="Q7">
         <v>4.224247458039444</v>
@@ -880,10 +880,10 @@
         <v>38.01822712235499</v>
       </c>
       <c r="S7">
-        <v>0.1057157000982213</v>
+        <v>0.1259043528847903</v>
       </c>
       <c r="T7">
-        <v>0.1057157000982213</v>
+        <v>0.1259043528847903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.233763666666666</v>
+        <v>3.233763666666667</v>
       </c>
       <c r="H8">
-        <v>9.701290999999999</v>
+        <v>9.701291000000001</v>
       </c>
       <c r="I8">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="J8">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07184333333333333</v>
+        <v>0.1591613333333333</v>
       </c>
       <c r="N8">
-        <v>0.21553</v>
+        <v>0.477484</v>
       </c>
       <c r="O8">
-        <v>0.04065095086408497</v>
+        <v>0.08581789712686431</v>
       </c>
       <c r="P8">
-        <v>0.04065095086408497</v>
+        <v>0.08581789712686431</v>
       </c>
       <c r="Q8">
-        <v>0.2323243610255555</v>
+        <v>0.5146901368715555</v>
       </c>
       <c r="R8">
-        <v>2.09091924923</v>
+        <v>4.632211231844</v>
       </c>
       <c r="S8">
-        <v>0.005814132036452109</v>
+        <v>0.01534041962803787</v>
       </c>
       <c r="T8">
-        <v>0.005814132036452109</v>
+        <v>0.01534041962803787</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.233763666666666</v>
+        <v>3.233763666666667</v>
       </c>
       <c r="H9">
-        <v>9.701290999999999</v>
+        <v>9.701291000000001</v>
       </c>
       <c r="I9">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="J9">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.945602</v>
       </c>
       <c r="O9">
-        <v>0.7441770195853729</v>
+        <v>0.7091405503421059</v>
       </c>
       <c r="P9">
-        <v>0.7441770195853727</v>
+        <v>0.7091405503421059</v>
       </c>
       <c r="Q9">
-        <v>4.253048130242444</v>
+        <v>4.253048130242445</v>
       </c>
       <c r="R9">
-        <v>38.277433172182</v>
+        <v>38.27743317218201</v>
       </c>
       <c r="S9">
-        <v>0.1064364635609406</v>
+        <v>0.1267627614019014</v>
       </c>
       <c r="T9">
-        <v>0.1064364635609406</v>
+        <v>0.1267627614019014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.233763666666666</v>
+        <v>3.233763666666667</v>
       </c>
       <c r="H10">
-        <v>9.701290999999999</v>
+        <v>9.701291000000001</v>
       </c>
       <c r="I10">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="J10">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.140835</v>
       </c>
       <c r="O10">
-        <v>0.2151720295505423</v>
+        <v>0.2050415525310298</v>
       </c>
       <c r="P10">
-        <v>0.2151720295505423</v>
+        <v>0.2050415525310298</v>
       </c>
       <c r="Q10">
         <v>1.229730257553889</v>
@@ -1066,10 +1066,10 @@
         <v>11.067572317985</v>
       </c>
       <c r="S10">
-        <v>0.03077513720505657</v>
+        <v>0.03665230170299441</v>
       </c>
       <c r="T10">
-        <v>0.03077513720505657</v>
+        <v>0.03665230170299442</v>
       </c>
     </row>
   </sheetData>
